--- a/biology/Zoologie/Géomys_du_désert/Géomys_du_désert.xlsx
+++ b/biology/Zoologie/Géomys_du_désert/Géomys_du_désert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9omys_du_d%C3%A9sert</t>
+          <t>Géomys_du_désert</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Geomys arenarius
-Le Géomys du désert (Geomys arenarius)[1] est un mammifère de la famille des Géomyidés qui rassemble des rongeurs à larges abajoues. On rencontre des populations dans les États de Chihuahua au Mexique et du Texas et du Nouveau-Mexique aux États-Unis.
+Le Géomys du désert (Geomys arenarius) est un mammifère de la famille des Géomyidés qui rassemble des rongeurs à larges abajoues. On rencontre des populations dans les États de Chihuahua au Mexique et du Texas et du Nouveau-Mexique aux États-Unis.
 L'espèce a été décrite pour la première fois en 1895 par un zoologiste américain, Clinton Hart Merriam (1855-1942).
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%A9omys_du_d%C3%A9sert</t>
+          <t>Géomys_du_désert</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Mammal Species of the World (version 3, 2005)  (5 nov. 2012)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (5 nov. 2012) :
 sous-espèce Geomys arenarius arenarius
 sous-espèce Geomys arenarius brevirostris</t>
         </is>
